--- a/EvoTax.1099/wwwroot/Templates/Form1099_Q_Template.xlsx
+++ b/EvoTax.1099/wwwroot/Templates/Form1099_Q_Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://matthewjohnmcnally-my.sharepoint.com/personal/obaig_evolvedtax_com/Documents/Desktop/Excel sample/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Code Repos\EvoTaxes\EvoTax.1099\wwwroot\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_0DDCA8574819C593204E828D92F31807D2A87CFF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99BD73CA-5301-45B3-A6F5-96FB3277116A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A92A376-6ED2-48F9-BCCF-553C14A8EC60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,29 +21,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="148">
   <si>
     <t>Rcp TIN</t>
   </si>
   <si>
-    <t>Last Name/Company</t>
-  </si>
-  <si>
     <t>First Name</t>
   </si>
   <si>
-    <t>Name Line 2</t>
-  </si>
-  <si>
     <t>Address Type</t>
   </si>
   <si>
-    <t>Address Deliv/Street</t>
-  </si>
-  <si>
-    <t>Address Apt/Suite</t>
-  </si>
-  <si>
     <t>City</t>
   </si>
   <si>
@@ -459,6 +447,24 @@
   </si>
   <si>
     <t>Is Corrected</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Address Line 1</t>
+  </si>
+  <si>
+    <t>Address Line 2</t>
+  </si>
+  <si>
+    <t>Province</t>
+  </si>
+  <si>
+    <t>Postal Code</t>
   </si>
 </sst>
 </file>
@@ -864,7 +870,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1031,6 +1037,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1077,7 +1094,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1123,6 +1140,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1445,10 +1463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA13"/>
+  <dimension ref="A1:AC13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1458,840 +1476,847 @@
     <col min="3" max="3" width="20.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.54296875" customWidth="1"/>
+    <col min="12" max="12" width="10.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="K1" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="M1" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2">
+        <v>1000</v>
+      </c>
+      <c r="Q2">
+        <v>-2000</v>
+      </c>
+      <c r="R2">
+        <v>3000</v>
+      </c>
+      <c r="S2" t="s">
+        <v>139</v>
+      </c>
+      <c r="T2" t="s">
+        <v>140</v>
+      </c>
+      <c r="U2" t="s">
+        <v>140</v>
+      </c>
+      <c r="V2" t="s">
+        <v>139</v>
+      </c>
+      <c r="W2" t="s">
+        <v>139</v>
+      </c>
+      <c r="X2">
+        <v>1000</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3">
+        <v>-1500</v>
+      </c>
+      <c r="R3">
+        <v>1500</v>
+      </c>
+      <c r="S3" t="s">
+        <v>139</v>
+      </c>
+      <c r="T3" t="s">
+        <v>140</v>
+      </c>
+      <c r="U3" t="s">
+        <v>140</v>
+      </c>
+      <c r="V3" t="s">
+        <v>139</v>
+      </c>
+      <c r="W3" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y3">
+        <v>2</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P4">
+        <v>1000</v>
+      </c>
+      <c r="Q4">
+        <v>-1000</v>
+      </c>
+      <c r="R4">
+        <v>2000</v>
+      </c>
+      <c r="S4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T4" t="s">
+        <v>140</v>
+      </c>
+      <c r="U4" t="s">
+        <v>140</v>
+      </c>
+      <c r="V4" t="s">
+        <v>139</v>
+      </c>
+      <c r="W4" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y4">
+        <v>3</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" s="5">
+        <v>14525</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P5">
+        <v>1600</v>
+      </c>
+      <c r="Q5">
+        <v>-1400</v>
+      </c>
+      <c r="R5">
+        <v>3000</v>
+      </c>
+      <c r="S5" t="s">
+        <v>139</v>
+      </c>
+      <c r="T5" t="s">
+        <v>140</v>
+      </c>
+      <c r="U5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V5" t="s">
+        <v>139</v>
+      </c>
+      <c r="W5" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y5">
+        <v>4</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" s="5">
+        <v>96049</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P6">
+        <v>147.97999999999999</v>
+      </c>
+      <c r="Q6">
+        <v>-222.01</v>
+      </c>
+      <c r="R6">
+        <v>369.99</v>
+      </c>
+      <c r="S6" t="s">
+        <v>139</v>
+      </c>
+      <c r="T6" t="s">
+        <v>140</v>
+      </c>
+      <c r="U6" t="s">
+        <v>140</v>
+      </c>
+      <c r="V6" t="s">
+        <v>139</v>
+      </c>
+      <c r="W6" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y6">
+        <v>5</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P7">
+        <v>422.99</v>
+      </c>
+      <c r="Q7">
+        <v>-289</v>
+      </c>
+      <c r="R7">
+        <v>711.99</v>
+      </c>
+      <c r="S7" t="s">
+        <v>139</v>
+      </c>
+      <c r="T7" t="s">
+        <v>140</v>
+      </c>
+      <c r="U7" t="s">
+        <v>140</v>
+      </c>
+      <c r="V7" t="s">
+        <v>139</v>
+      </c>
+      <c r="W7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y7">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="Z7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" s="5">
+        <v>85082</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="P8">
+        <v>480.01</v>
+      </c>
+      <c r="Q8">
+        <v>-361.99</v>
+      </c>
+      <c r="R8">
+        <v>842</v>
+      </c>
+      <c r="S8" t="s">
+        <v>139</v>
+      </c>
+      <c r="T8" t="s">
+        <v>140</v>
+      </c>
+      <c r="U8" t="s">
+        <v>140</v>
+      </c>
+      <c r="V8" t="s">
+        <v>139</v>
+      </c>
+      <c r="W8" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" s="5">
+        <v>11249</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="P9">
+        <v>1903</v>
+      </c>
+      <c r="Q9">
+        <v>-2796</v>
+      </c>
+      <c r="R9">
+        <v>4699</v>
+      </c>
+      <c r="S9" t="s">
+        <v>139</v>
+      </c>
+      <c r="T9" t="s">
+        <v>140</v>
+      </c>
+      <c r="U9" t="s">
+        <v>140</v>
+      </c>
+      <c r="V9" t="s">
+        <v>139</v>
+      </c>
+      <c r="W9" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" s="5">
+        <v>90402</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="O10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P10">
+        <v>149</v>
+      </c>
+      <c r="Q10">
+        <v>-1479</v>
+      </c>
+      <c r="R10">
+        <v>1628</v>
+      </c>
+      <c r="S10" t="s">
+        <v>139</v>
+      </c>
+      <c r="T10" t="s">
+        <v>140</v>
+      </c>
+      <c r="U10" t="s">
+        <v>140</v>
+      </c>
+      <c r="V10" t="s">
+        <v>139</v>
+      </c>
+      <c r="W10" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" t="s">
+        <v>101</v>
+      </c>
+      <c r="I11" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="O11" t="s">
+        <v>105</v>
+      </c>
+      <c r="P11">
+        <v>1098</v>
+      </c>
+      <c r="Q11">
+        <v>-5902</v>
+      </c>
+      <c r="R11">
+        <v>7000</v>
+      </c>
+      <c r="S11" t="s">
+        <v>139</v>
+      </c>
+      <c r="T11" t="s">
+        <v>140</v>
+      </c>
+      <c r="U11" t="s">
+        <v>140</v>
+      </c>
+      <c r="V11" t="s">
+        <v>139</v>
+      </c>
+      <c r="W11" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" t="s">
+        <v>109</v>
+      </c>
+      <c r="I12" t="s">
         <v>27</v>
       </c>
-      <c r="C2" t="s">
+      <c r="J12" t="s">
         <v>28</v>
       </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="L12" s="5">
+        <v>97404</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="P12">
+        <v>1700</v>
+      </c>
+      <c r="Q12">
+        <v>-2550</v>
+      </c>
+      <c r="R12">
+        <v>4250</v>
+      </c>
+      <c r="S12" t="s">
+        <v>139</v>
+      </c>
+      <c r="T12" t="s">
+        <v>140</v>
+      </c>
+      <c r="U12" t="s">
+        <v>140</v>
+      </c>
+      <c r="V12" t="s">
+        <v>139</v>
+      </c>
+      <c r="W12" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z12" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2">
-        <v>1000</v>
-      </c>
-      <c r="O2">
-        <v>-2000</v>
-      </c>
-      <c r="P2">
-        <v>3000</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>143</v>
-      </c>
-      <c r="R2" t="s">
-        <v>144</v>
-      </c>
-      <c r="S2" t="s">
-        <v>144</v>
-      </c>
-      <c r="T2" t="s">
-        <v>143</v>
-      </c>
-      <c r="U2" t="s">
-        <v>143</v>
-      </c>
-      <c r="V2">
-        <v>1000</v>
-      </c>
-      <c r="W2">
-        <v>1</v>
-      </c>
-      <c r="X2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="O3">
-        <v>-1500</v>
-      </c>
-      <c r="P3">
-        <v>1500</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>143</v>
-      </c>
-      <c r="R3" t="s">
-        <v>144</v>
-      </c>
-      <c r="S3" t="s">
-        <v>144</v>
-      </c>
-      <c r="T3" t="s">
-        <v>143</v>
-      </c>
-      <c r="U3" t="s">
-        <v>143</v>
-      </c>
-      <c r="W3">
-        <v>2</v>
-      </c>
-      <c r="X3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="M4" t="s">
-        <v>54</v>
-      </c>
-      <c r="N4">
-        <v>1000</v>
-      </c>
-      <c r="O4">
-        <v>-1000</v>
-      </c>
-      <c r="P4">
-        <v>2000</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>143</v>
-      </c>
-      <c r="R4" t="s">
-        <v>144</v>
-      </c>
-      <c r="S4" t="s">
-        <v>144</v>
-      </c>
-      <c r="T4" t="s">
-        <v>143</v>
-      </c>
-      <c r="U4" t="s">
-        <v>143</v>
-      </c>
-      <c r="W4">
-        <v>3</v>
-      </c>
-      <c r="X4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I5" t="s">
-        <v>61</v>
-      </c>
-      <c r="J5" s="5">
-        <v>14525</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="N5">
-        <v>1600</v>
-      </c>
-      <c r="O5">
-        <v>-1400</v>
-      </c>
-      <c r="P5">
-        <v>3000</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>143</v>
-      </c>
-      <c r="R5" t="s">
-        <v>144</v>
-      </c>
-      <c r="S5" t="s">
-        <v>144</v>
-      </c>
-      <c r="T5" t="s">
-        <v>143</v>
-      </c>
-      <c r="U5" t="s">
-        <v>143</v>
-      </c>
-      <c r="W5">
-        <v>4</v>
-      </c>
-      <c r="X5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I6" t="s">
-        <v>68</v>
-      </c>
-      <c r="J6" s="5">
-        <v>96049</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="N6">
-        <v>147.97999999999999</v>
-      </c>
-      <c r="O6">
-        <v>-222.01</v>
-      </c>
-      <c r="P6">
-        <v>369.99</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>143</v>
-      </c>
-      <c r="R6" t="s">
-        <v>144</v>
-      </c>
-      <c r="S6" t="s">
-        <v>144</v>
-      </c>
-      <c r="T6" t="s">
-        <v>143</v>
-      </c>
-      <c r="U6" t="s">
-        <v>143</v>
-      </c>
-      <c r="W6">
-        <v>5</v>
-      </c>
-      <c r="X6" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H7" t="s">
-        <v>140</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="K7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="N7">
-        <v>422.99</v>
-      </c>
-      <c r="O7">
-        <v>-289</v>
-      </c>
-      <c r="P7">
-        <v>711.99</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>143</v>
-      </c>
-      <c r="R7" t="s">
-        <v>144</v>
-      </c>
-      <c r="S7" t="s">
-        <v>144</v>
-      </c>
-      <c r="T7" t="s">
-        <v>143</v>
-      </c>
-      <c r="U7" t="s">
-        <v>143</v>
-      </c>
-      <c r="W7">
-        <v>6</v>
-      </c>
-      <c r="X7" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" t="s">
-        <v>81</v>
-      </c>
-      <c r="H8" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J8" s="5">
-        <v>85082</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="N8">
-        <v>480.01</v>
-      </c>
-      <c r="O8">
-        <v>-361.99</v>
-      </c>
-      <c r="P8">
-        <v>842</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>143</v>
-      </c>
-      <c r="R8" t="s">
-        <v>144</v>
-      </c>
-      <c r="S8" t="s">
-        <v>144</v>
-      </c>
-      <c r="T8" t="s">
-        <v>143</v>
-      </c>
-      <c r="U8" t="s">
-        <v>143</v>
-      </c>
-      <c r="X8" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F9" t="s">
-        <v>88</v>
-      </c>
-      <c r="H9" t="s">
-        <v>89</v>
-      </c>
-      <c r="I9" t="s">
-        <v>61</v>
-      </c>
-      <c r="J9" s="5">
-        <v>11249</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="N9">
-        <v>1903</v>
-      </c>
-      <c r="O9">
-        <v>-2796</v>
-      </c>
-      <c r="P9">
-        <v>4699</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>143</v>
-      </c>
-      <c r="R9" t="s">
-        <v>144</v>
-      </c>
-      <c r="S9" t="s">
-        <v>144</v>
-      </c>
-      <c r="T9" t="s">
-        <v>143</v>
-      </c>
-      <c r="U9" t="s">
-        <v>143</v>
-      </c>
-      <c r="X9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" t="s">
-        <v>94</v>
-      </c>
-      <c r="G10" t="s">
-        <v>95</v>
-      </c>
-      <c r="H10" t="s">
-        <v>96</v>
-      </c>
-      <c r="I10" t="s">
-        <v>68</v>
-      </c>
-      <c r="J10" s="5">
-        <v>90402</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="M10" t="s">
-        <v>98</v>
-      </c>
-      <c r="N10">
-        <v>149</v>
-      </c>
-      <c r="O10">
-        <v>-1479</v>
-      </c>
-      <c r="P10">
-        <v>1628</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>143</v>
-      </c>
-      <c r="R10" t="s">
-        <v>144</v>
-      </c>
-      <c r="S10" t="s">
-        <v>144</v>
-      </c>
-      <c r="T10" t="s">
-        <v>143</v>
-      </c>
-      <c r="U10" t="s">
-        <v>143</v>
-      </c>
-      <c r="X10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" t="s">
-        <v>104</v>
-      </c>
-      <c r="F11" t="s">
-        <v>105</v>
-      </c>
-      <c r="H11" t="s">
-        <v>106</v>
-      </c>
-      <c r="I11" t="s">
-        <v>68</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="M11" t="s">
-        <v>109</v>
-      </c>
-      <c r="N11">
-        <v>1098</v>
-      </c>
-      <c r="O11">
-        <v>-5902</v>
-      </c>
-      <c r="P11">
-        <v>7000</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>143</v>
-      </c>
-      <c r="R11" t="s">
-        <v>144</v>
-      </c>
-      <c r="S11" t="s">
-        <v>144</v>
-      </c>
-      <c r="T11" t="s">
-        <v>143</v>
-      </c>
-      <c r="U11" t="s">
-        <v>143</v>
-      </c>
-      <c r="X11" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="AC12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B13" t="s">
         <v>112</v>
       </c>
-      <c r="F12" t="s">
+      <c r="C13" t="s">
         <v>113</v>
       </c>
-      <c r="H12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="G13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I13" t="s">
+        <v>115</v>
+      </c>
+      <c r="J13" t="s">
+        <v>116</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="P13">
+        <v>499.02</v>
+      </c>
+      <c r="Q13">
+        <v>-500</v>
+      </c>
+      <c r="R13">
+        <v>999.02</v>
+      </c>
+      <c r="S13" t="s">
+        <v>139</v>
+      </c>
+      <c r="T13" t="s">
+        <v>140</v>
+      </c>
+      <c r="U13" t="s">
+        <v>140</v>
+      </c>
+      <c r="V13" t="s">
+        <v>139</v>
+      </c>
+      <c r="W13" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z13" t="s">
         <v>32</v>
       </c>
-      <c r="J12" s="5">
-        <v>97404</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="N12">
-        <v>1700</v>
-      </c>
-      <c r="O12">
-        <v>-2550</v>
-      </c>
-      <c r="P12">
-        <v>4250</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>143</v>
-      </c>
-      <c r="R12" t="s">
-        <v>144</v>
-      </c>
-      <c r="S12" t="s">
-        <v>144</v>
-      </c>
-      <c r="T12" t="s">
-        <v>143</v>
-      </c>
-      <c r="U12" t="s">
-        <v>143</v>
-      </c>
-      <c r="X12" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C13" t="s">
-        <v>117</v>
-      </c>
-      <c r="F13" t="s">
-        <v>118</v>
-      </c>
-      <c r="H13" t="s">
-        <v>119</v>
-      </c>
-      <c r="I13" t="s">
-        <v>120</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="N13">
-        <v>499.02</v>
-      </c>
-      <c r="O13">
-        <v>-500</v>
-      </c>
-      <c r="P13">
-        <v>999.02</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>143</v>
-      </c>
-      <c r="R13" t="s">
-        <v>144</v>
-      </c>
-      <c r="S13" t="s">
-        <v>144</v>
-      </c>
-      <c r="T13" t="s">
-        <v>143</v>
-      </c>
-      <c r="U13" t="s">
-        <v>143</v>
-      </c>
-      <c r="X13" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>144</v>
+      <c r="AC13" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:U1048576 AA1:AA1048576" xr:uid="{45A25BDB-E942-495A-A432-DB93B194A142}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S1:W1048576 AC1:AC1048576" xr:uid="{45A25BDB-E942-495A-A432-DB93B194A142}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2314,51 +2339,51 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -2373,7 +2398,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -2388,7 +2413,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -2403,7 +2428,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -2418,7 +2443,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="20" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -2433,7 +2458,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="20" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -2448,7 +2473,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -2463,7 +2488,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -2478,7 +2503,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -2493,7 +2518,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
